--- a/nilai sensor di naik turun.xlsx
+++ b/nilai sensor di naik turun.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15240" windowHeight="9630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t>Belokan 1</t>
   </si>
@@ -75,6 +77,30 @@
   </si>
   <si>
     <t>behind</t>
+  </si>
+  <si>
+    <t>kiri 10-30</t>
+  </si>
+  <si>
+    <t>kanan 10-30</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>tidak mungkin terjadi</t>
+  </si>
+  <si>
+    <t>tidak mungkin nilai dibawah 10 karena ada kaki</t>
+  </si>
+  <si>
+    <t>0&lt;par_ld&lt;=13</t>
+  </si>
+  <si>
+    <t>0&lt;par_l&lt;=10</t>
+  </si>
+  <si>
+    <t>kompasValue&lt;min_range_south</t>
   </si>
 </sst>
 </file>
@@ -453,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView topLeftCell="C48" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1803,7 +1829,10 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+      <c r="I67" s="2">
+        <f>AVERAGE(I25:I64)</f>
+        <v>98</v>
+      </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
@@ -1817,9 +1846,15 @@
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="C72" s="2">
+        <v>115</v>
+      </c>
+      <c r="D72" s="2">
+        <v>104</v>
+      </c>
+      <c r="E72" s="2">
+        <v>93</v>
+      </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -1868,4 +1903,314 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:G29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>